--- a/outcome/appendix/forecast/HFRS.xlsx
+++ b/outcome/appendix/forecast/HFRS.xlsx
@@ -427,20 +427,12 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>880.592616219665</v>
-      </c>
-      <c r="C2" t="n">
-        <v>747.115236075757</v>
-      </c>
-      <c r="D2" t="n">
-        <v>685.808968742006</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1041.63104894807</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1140.18884380045</v>
-      </c>
+        <v>1156.10824281536</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
       <c r="G2" t="s">
         <v>10</v>
       </c>
@@ -448,7 +440,7 @@
         <v>684</v>
       </c>
       <c r="I2" t="n">
-        <v>196.592616219665</v>
+        <v>472.108242815362</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,20 +451,12 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>595.310492867474</v>
-      </c>
-      <c r="C3" t="n">
-        <v>488.053220149452</v>
-      </c>
-      <c r="D3" t="n">
-        <v>440.227777320858</v>
-      </c>
-      <c r="E3" t="n">
-        <v>729.955385598358</v>
-      </c>
-      <c r="F3" t="n">
-        <v>814.960452150157</v>
-      </c>
+        <v>797.521304882483</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
       <c r="G3" t="s">
         <v>10</v>
       </c>
@@ -480,7 +464,7 @@
         <v>374</v>
       </c>
       <c r="I3" t="n">
-        <v>221.310492867474</v>
+        <v>423.521304882483</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,20 +475,12 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>683.209224563017</v>
-      </c>
-      <c r="C4" t="n">
-        <v>545.656014930385</v>
-      </c>
-      <c r="D4" t="n">
-        <v>485.692537129429</v>
-      </c>
-      <c r="E4" t="n">
-        <v>861.219741780248</v>
-      </c>
-      <c r="F4" t="n">
-        <v>976.320955476853</v>
-      </c>
+        <v>749.432077777024</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
       <c r="G4" t="s">
         <v>10</v>
       </c>
@@ -512,7 +488,7 @@
         <v>433</v>
       </c>
       <c r="I4" t="n">
-        <v>250.209224563017</v>
+        <v>316.432077777024</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,20 +499,12 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>695.422114011485</v>
-      </c>
-      <c r="C5" t="n">
-        <v>547.938767326513</v>
-      </c>
-      <c r="D5" t="n">
-        <v>484.394654870068</v>
-      </c>
-      <c r="E5" t="n">
-        <v>889.322976879937</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1016.26871980312</v>
-      </c>
+        <v>714.176503660469</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
       <c r="G5" t="s">
         <v>10</v>
       </c>
@@ -544,7 +512,7 @@
         <v>540</v>
       </c>
       <c r="I5" t="n">
-        <v>155.422114011485</v>
+        <v>174.176503660469</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,20 +523,12 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>909.298014374977</v>
-      </c>
-      <c r="C6" t="n">
-        <v>704.853807182032</v>
-      </c>
-      <c r="D6" t="n">
-        <v>618.002227311553</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1183.26780597229</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1365.35656389315</v>
-      </c>
+        <v>855.655266200393</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
       <c r="G6" t="s">
         <v>10</v>
       </c>
@@ -576,7 +536,7 @@
         <v>686</v>
       </c>
       <c r="I6" t="n">
-        <v>223.298014374977</v>
+        <v>169.655266200393</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,20 +547,12 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>976.344431408425</v>
-      </c>
-      <c r="C7" t="n">
-        <v>751.356567986533</v>
-      </c>
-      <c r="D7" t="n">
-        <v>656.375071389169</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1280.41655799768</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1483.87356910491</v>
-      </c>
+        <v>937.140436638483</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
       <c r="G7" t="s">
         <v>10</v>
       </c>
@@ -608,7 +560,7 @@
         <v>826</v>
       </c>
       <c r="I7" t="n">
-        <v>150.344431408425</v>
+        <v>111.140436638483</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,20 +571,12 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>711.135736107574</v>
-      </c>
-      <c r="C8" t="n">
-        <v>551.349840999619</v>
-      </c>
-      <c r="D8" t="n">
-        <v>483.458843231051</v>
-      </c>
-      <c r="E8" t="n">
-        <v>925.212916599528</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1067.4703792349</v>
-      </c>
+        <v>755.956159895789</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
       <c r="G8" t="s">
         <v>10</v>
       </c>
@@ -640,7 +584,7 @@
         <v>313</v>
       </c>
       <c r="I8" t="n">
-        <v>398.135736107574</v>
+        <v>442.956159895789</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,20 +595,12 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>424.199191406857</v>
-      </c>
-      <c r="C9" t="n">
-        <v>333.695784068528</v>
-      </c>
-      <c r="D9" t="n">
-        <v>294.756325501616</v>
-      </c>
-      <c r="E9" t="n">
-        <v>543.41184818821</v>
-      </c>
-      <c r="F9" t="n">
-        <v>621.576018454844</v>
-      </c>
+        <v>466.922604641226</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
       <c r="G9" t="s">
         <v>10</v>
       </c>
@@ -672,7 +608,7 @@
         <v>313</v>
       </c>
       <c r="I9" t="n">
-        <v>111.199191406857</v>
+        <v>153.922604641226</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,20 +619,12 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>370.442917898964</v>
-      </c>
-      <c r="C10" t="n">
-        <v>292.308900434846</v>
-      </c>
-      <c r="D10" t="n">
-        <v>258.601653963957</v>
-      </c>
-      <c r="E10" t="n">
-        <v>472.99225017974</v>
-      </c>
-      <c r="F10" t="n">
-        <v>540.040088770778</v>
-      </c>
+        <v>370.059588598021</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
       <c r="G10" t="s">
         <v>10</v>
       </c>
@@ -704,7 +632,7 @@
         <v>320</v>
       </c>
       <c r="I10" t="n">
-        <v>50.4429178989641</v>
+        <v>50.0595885980208</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -715,20 +643,12 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>760.818074550796</v>
-      </c>
-      <c r="C11" t="n">
-        <v>586.448799279905</v>
-      </c>
-      <c r="D11" t="n">
-        <v>512.73302243787</v>
-      </c>
-      <c r="E11" t="n">
-        <v>996.030264939131</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1153.17564713735</v>
-      </c>
+        <v>607.151952470888</v>
+      </c>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
       <c r="G11" t="s">
         <v>10</v>
       </c>
@@ -736,10 +656,10 @@
         <v>611</v>
       </c>
       <c r="I11" t="n">
-        <v>149.818074550796</v>
+        <v>-3.84804752911236</v>
       </c>
       <c r="J11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
@@ -747,20 +667,12 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>1659.57417513944</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1244.42005619863</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1073.04695569857</v>
-      </c>
-      <c r="E12" t="n">
-        <v>2238.02400997323</v>
-      </c>
-      <c r="F12" t="n">
-        <v>2634.52560228352</v>
-      </c>
+        <v>1260.47091059594</v>
+      </c>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
       <c r="G12" t="s">
         <v>10</v>
       </c>
@@ -768,7 +680,7 @@
         <v>1796</v>
       </c>
       <c r="I12" t="n">
-        <v>-136.425824860563</v>
+        <v>-535.529089404065</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -779,20 +691,12 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>1506.32276673244</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1133.21445249408</v>
-      </c>
-      <c r="D13" t="n">
-        <v>978.76039072491</v>
-      </c>
-      <c r="E13" t="n">
-        <v>2024.18742430247</v>
-      </c>
-      <c r="F13" t="n">
-        <v>2378.07659741145</v>
-      </c>
+        <v>1316.72187653005</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
       <c r="G13" t="s">
         <v>10</v>
       </c>
@@ -800,10 +704,10 @@
         <v>1460</v>
       </c>
       <c r="I13" t="n">
-        <v>46.3227667324441</v>
+        <v>-143.278123469951</v>
       </c>
       <c r="J13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
@@ -811,20 +715,12 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>933.982346928619</v>
-      </c>
-      <c r="C14" t="n">
-        <v>707.949810692549</v>
-      </c>
-      <c r="D14" t="n">
-        <v>613.768964798145</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1244.94536110247</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1455.96066507603</v>
-      </c>
+        <v>1180.95954937027</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
       <c r="G14" t="s">
         <v>10</v>
       </c>
@@ -832,7 +728,7 @@
         <v>562</v>
       </c>
       <c r="I14" t="n">
-        <v>371.982346928619</v>
+        <v>618.959549370267</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -843,20 +739,12 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>622.708162108473</v>
-      </c>
-      <c r="C15" t="n">
-        <v>476.059907341549</v>
-      </c>
-      <c r="D15" t="n">
-        <v>414.502684017496</v>
-      </c>
-      <c r="E15" t="n">
-        <v>822.443643910715</v>
-      </c>
-      <c r="F15" t="n">
-        <v>956.908659731512</v>
-      </c>
+        <v>872.477331487484</v>
+      </c>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
       <c r="G15" t="s">
         <v>10</v>
       </c>
@@ -864,7 +752,7 @@
         <v>365</v>
       </c>
       <c r="I15" t="n">
-        <v>257.708162108473</v>
+        <v>507.477331487484</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,20 +763,12 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>717.970108353896</v>
-      </c>
-      <c r="C16" t="n">
-        <v>544.370701052964</v>
-      </c>
-      <c r="D16" t="n">
-        <v>472.019194212467</v>
-      </c>
-      <c r="E16" t="n">
-        <v>956.718066670337</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1118.68597196302</v>
-      </c>
+        <v>774.164262285526</v>
+      </c>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
       <c r="G16" t="s">
         <v>10</v>
       </c>
@@ -896,7 +776,7 @@
         <v>424</v>
       </c>
       <c r="I16" t="n">
-        <v>293.970108353896</v>
+        <v>350.164262285526</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -907,20 +787,12 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>732.226726783204</v>
-      </c>
-      <c r="C17" t="n">
-        <v>553.642380649613</v>
-      </c>
-      <c r="D17" t="n">
-        <v>479.391577525427</v>
-      </c>
-      <c r="E17" t="n">
-        <v>978.632152032866</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1146.22707067585</v>
-      </c>
+        <v>728.557790199107</v>
+      </c>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
       <c r="G17" t="s">
         <v>10</v>
       </c>
@@ -928,7 +800,7 @@
         <v>510</v>
       </c>
       <c r="I17" t="n">
-        <v>222.226726783204</v>
+        <v>218.557790199107</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -939,20 +811,12 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>942.865332364795</v>
-      </c>
-      <c r="C18" t="n">
-        <v>705.491138664999</v>
-      </c>
-      <c r="D18" t="n">
-        <v>607.68548418374</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1274.44097059548</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1502.17538808169</v>
-      </c>
+        <v>808.507154660842</v>
+      </c>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
       <c r="G18" t="s">
         <v>10</v>
       </c>
@@ -960,7 +824,7 @@
         <v>685</v>
       </c>
       <c r="I18" t="n">
-        <v>257.865332364795</v>
+        <v>123.507154660842</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,20 +835,12 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>1003.75436035396</v>
-      </c>
-      <c r="C19" t="n">
-        <v>748.69106911552</v>
-      </c>
-      <c r="D19" t="n">
-        <v>643.882549403198</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1361.36160944051</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1607.69841558285</v>
-      </c>
+        <v>879.340173021973</v>
+      </c>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
       <c r="G19" t="s">
         <v>10</v>
       </c>
@@ -992,7 +848,7 @@
         <v>724</v>
       </c>
       <c r="I19" t="n">
-        <v>279.754360353963</v>
+        <v>155.340173021973</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,20 +859,12 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>732.1284859433</v>
-      </c>
-      <c r="C20" t="n">
-        <v>552.1407544918</v>
-      </c>
-      <c r="D20" t="n">
-        <v>477.473330916637</v>
-      </c>
-      <c r="E20" t="n">
-        <v>981.225092184436</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1151.05839270833</v>
-      </c>
+        <v>779.735777260304</v>
+      </c>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
       <c r="G20" t="s">
         <v>10</v>
       </c>
@@ -1024,7 +872,7 @@
         <v>467</v>
       </c>
       <c r="I20" t="n">
-        <v>265.1284859433</v>
+        <v>312.735777260304</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,20 +883,12 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>435.75079961825</v>
-      </c>
-      <c r="C21" t="n">
-        <v>334.503312459515</v>
-      </c>
-      <c r="D21" t="n">
-        <v>291.852257865209</v>
-      </c>
-      <c r="E21" t="n">
-        <v>572.987029226652</v>
-      </c>
-      <c r="F21" t="n">
-        <v>665.024915207588</v>
-      </c>
+        <v>517.895477096487</v>
+      </c>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
       <c r="G21" t="s">
         <v>10</v>
       </c>
@@ -1056,7 +896,7 @@
         <v>255</v>
       </c>
       <c r="I21" t="n">
-        <v>180.75079961825</v>
+        <v>262.895477096487</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,20 +907,12 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>382.125984144081</v>
-      </c>
-      <c r="C22" t="n">
-        <v>294.577820769314</v>
-      </c>
-      <c r="D22" t="n">
-        <v>257.562993159598</v>
-      </c>
-      <c r="E22" t="n">
-        <v>500.208369604667</v>
-      </c>
-      <c r="F22" t="n">
-        <v>579.091835532925</v>
-      </c>
+        <v>393.481482039365</v>
+      </c>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
       <c r="G22" t="s">
         <v>10</v>
       </c>
@@ -1088,7 +920,7 @@
         <v>291</v>
       </c>
       <c r="I22" t="n">
-        <v>91.1259841440813</v>
+        <v>102.481482039365</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1099,20 +931,12 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>800.15538042815</v>
-      </c>
-      <c r="C23" t="n">
-        <v>601.164040670519</v>
-      </c>
-      <c r="D23" t="n">
-        <v>518.882760996535</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1076.7809812683</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1266.05021742597</v>
-      </c>
+        <v>556.516503540145</v>
+      </c>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
       <c r="G23" t="s">
         <v>10</v>
       </c>
@@ -1120,10 +944,10 @@
         <v>678</v>
       </c>
       <c r="I23" t="n">
-        <v>122.15538042815</v>
+        <v>-121.483496459855</v>
       </c>
       <c r="J23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
@@ -1131,20 +955,12 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>1734.03753017394</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1264.89423068561</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1075.79797485156</v>
-      </c>
-      <c r="E24" t="n">
-        <v>2409.31793298777</v>
-      </c>
-      <c r="F24" t="n">
-        <v>2884.30690386201</v>
-      </c>
+        <v>1101.83285287663</v>
+      </c>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
       <c r="G24" t="s">
         <v>10</v>
       </c>
@@ -1152,7 +968,7 @@
         <v>2120</v>
       </c>
       <c r="I24" t="n">
-        <v>-385.962469826057</v>
+        <v>-1018.16714712337</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -1163,20 +979,12 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>1555.48486198522</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1139.58589776126</v>
-      </c>
-      <c r="D25" t="n">
-        <v>971.320005996839</v>
-      </c>
-      <c r="E25" t="n">
-        <v>2151.06285172543</v>
-      </c>
-      <c r="F25" t="n">
-        <v>2568.2831702842</v>
-      </c>
+        <v>1243.90338400161</v>
+      </c>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
       <c r="G25" t="s">
         <v>10</v>
       </c>
@@ -1184,7 +992,7 @@
         <v>2402</v>
       </c>
       <c r="I25" t="n">
-        <v>-846.515138014783</v>
+        <v>-1158.09661599839</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -1195,20 +1003,12 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>953.178519095675</v>
-      </c>
-      <c r="C26" t="n">
-        <v>709.443925195268</v>
-      </c>
-      <c r="D26" t="n">
-        <v>609.476068866039</v>
-      </c>
-      <c r="E26" t="n">
-        <v>1295.76692617316</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1532.23173634229</v>
-      </c>
+        <v>1182.36486458914</v>
+      </c>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
       <c r="G26" t="s">
         <v>10</v>
       </c>
@@ -1216,7 +1016,7 @@
         <v>781</v>
       </c>
       <c r="I26" t="n">
-        <v>172.178519095675</v>
+        <v>401.364864589136</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1227,20 +1027,12 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>632.398562646205</v>
-      </c>
-      <c r="C27" t="n">
-        <v>476.943965844771</v>
-      </c>
-      <c r="D27" t="n">
-        <v>412.452251157658</v>
-      </c>
-      <c r="E27" t="n">
-        <v>847.534039539494</v>
-      </c>
-      <c r="F27" t="n">
-        <v>994.208345164222</v>
-      </c>
+        <v>940.069451833737</v>
+      </c>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
       <c r="G27" t="s">
         <v>10</v>
       </c>
@@ -1248,7 +1040,7 @@
         <v>330</v>
       </c>
       <c r="I27" t="n">
-        <v>302.398562646205</v>
+        <v>610.069451833737</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1259,20 +1051,12 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>729.217702934409</v>
-      </c>
-      <c r="C28" t="n">
-        <v>546.51618607468</v>
-      </c>
-      <c r="D28" t="n">
-        <v>471.131814300434</v>
-      </c>
-      <c r="E28" t="n">
-        <v>983.937507856978</v>
-      </c>
-      <c r="F28" t="n">
-        <v>1158.62085647276</v>
-      </c>
+        <v>803.083639903143</v>
+      </c>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
       <c r="G28" t="s">
         <v>10</v>
       </c>
@@ -1280,7 +1064,7 @@
         <v>344</v>
       </c>
       <c r="I28" t="n">
-        <v>385.217702934409</v>
+        <v>459.083639903143</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1291,20 +1075,12 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>743.411981215503</v>
-      </c>
-      <c r="C29" t="n">
-        <v>556.36644764532</v>
-      </c>
-      <c r="D29" t="n">
-        <v>479.284056342822</v>
-      </c>
-      <c r="E29" t="n">
-        <v>1004.62277632771</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1183.99434787037</v>
-      </c>
+        <v>744.352749013343</v>
+      </c>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
       <c r="G29" t="s">
         <v>10</v>
       </c>
@@ -1312,7 +1088,7 @@
         <v>333</v>
       </c>
       <c r="I29" t="n">
-        <v>410.411981215503</v>
+        <v>411.352749013343</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,20 +1099,12 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>953.302619969277</v>
-      </c>
-      <c r="C30" t="n">
-        <v>706.525339696979</v>
-      </c>
-      <c r="D30" t="n">
-        <v>605.681069368732</v>
-      </c>
-      <c r="E30" t="n">
-        <v>1301.9105891116</v>
-      </c>
-      <c r="F30" t="n">
-        <v>1543.48982344177</v>
-      </c>
+        <v>783.138634292378</v>
+      </c>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
       <c r="G30" t="s">
         <v>10</v>
       </c>
@@ -1344,7 +1112,7 @@
         <v>553</v>
       </c>
       <c r="I30" t="n">
-        <v>400.302619969277</v>
+        <v>230.138634292378</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,20 +1123,12 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>1012.31239452765</v>
-      </c>
-      <c r="C31" t="n">
-        <v>748.330450988061</v>
-      </c>
-      <c r="D31" t="n">
-        <v>640.695495596117</v>
-      </c>
-      <c r="E31" t="n">
-        <v>1386.35821604984</v>
-      </c>
-      <c r="F31" t="n">
-        <v>1646.19132862871</v>
-      </c>
+        <v>835.312673901688</v>
+      </c>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
       <c r="G31" t="s">
         <v>10</v>
       </c>
@@ -1376,7 +1136,7 @@
         <v>566</v>
       </c>
       <c r="I31" t="n">
-        <v>446.312394527653</v>
+        <v>269.312673901688</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1387,20 +1147,12 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>738.241249458019</v>
-      </c>
-      <c r="C32" t="n">
-        <v>552.15470423004</v>
-      </c>
-      <c r="D32" t="n">
-        <v>475.5085660075</v>
-      </c>
-      <c r="E32" t="n">
-        <v>998.302298574396</v>
-      </c>
-      <c r="F32" t="n">
-        <v>1176.98764789242</v>
-      </c>
+        <v>785.750912544745</v>
+      </c>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
       <c r="G32" t="s">
         <v>10</v>
       </c>
@@ -1408,7 +1160,7 @@
         <v>404</v>
       </c>
       <c r="I32" t="n">
-        <v>334.241249458019</v>
+        <v>381.750912544745</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1419,20 +1171,12 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>438.981399841582</v>
-      </c>
-      <c r="C33" t="n">
-        <v>334.450591873651</v>
-      </c>
-      <c r="D33" t="n">
-        <v>290.702697226021</v>
-      </c>
-      <c r="E33" t="n">
-        <v>581.927609927884</v>
-      </c>
-      <c r="F33" t="n">
-        <v>678.468583685217</v>
-      </c>
+        <v>562.361283859848</v>
+      </c>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
       <c r="G33" t="s">
         <v>10</v>
       </c>
@@ -1440,7 +1184,7 @@
         <v>235</v>
       </c>
       <c r="I33" t="n">
-        <v>203.981399841582</v>
+        <v>327.361283859848</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1451,20 +1195,12 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>385.232880927097</v>
-      </c>
-      <c r="C34" t="n">
-        <v>294.805139467692</v>
-      </c>
-      <c r="D34" t="n">
-        <v>256.814238320255</v>
-      </c>
-      <c r="E34" t="n">
-        <v>508.25128538647</v>
-      </c>
-      <c r="F34" t="n">
-        <v>590.992281475036</v>
-      </c>
+        <v>417.079945099645</v>
+      </c>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
       <c r="G34" t="s">
         <v>10</v>
       </c>
@@ -1472,7 +1208,7 @@
         <v>205</v>
       </c>
       <c r="I34" t="n">
-        <v>180.232880927097</v>
+        <v>212.079945099645</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,20 +1219,12 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>810.205424646409</v>
-      </c>
-      <c r="C35" t="n">
-        <v>603.794727273048</v>
-      </c>
-      <c r="D35" t="n">
-        <v>519.042460388136</v>
-      </c>
-      <c r="E35" t="n">
-        <v>1099.89933166482</v>
-      </c>
-      <c r="F35" t="n">
-        <v>1299.61795809387</v>
-      </c>
+        <v>502.919711756665</v>
+      </c>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
       <c r="G35" t="s">
         <v>10</v>
       </c>
@@ -1504,7 +1232,7 @@
         <v>400</v>
       </c>
       <c r="I35" t="n">
-        <v>410.205424646409</v>
+        <v>102.919711756665</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,20 +1243,12 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>1752.97962990165</v>
-      </c>
-      <c r="C36" t="n">
-        <v>1267.49570879274</v>
-      </c>
-      <c r="D36" t="n">
-        <v>1073.29856892181</v>
-      </c>
-      <c r="E36" t="n">
-        <v>2459.10015115626</v>
-      </c>
-      <c r="F36" t="n">
-        <v>2959.92025439844</v>
-      </c>
+        <v>978.381216101404</v>
+      </c>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
       <c r="G36" t="s">
         <v>10</v>
       </c>
@@ -1536,7 +1256,7 @@
         <v>895</v>
       </c>
       <c r="I36" t="n">
-        <v>857.979629901654</v>
+        <v>83.3812161014038</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,20 +1267,12 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>1567.94004312588</v>
-      </c>
-      <c r="C37" t="n">
-        <v>1138.94746847178</v>
-      </c>
-      <c r="D37" t="n">
-        <v>966.66078608123</v>
-      </c>
-      <c r="E37" t="n">
-        <v>2188.4974762108</v>
-      </c>
-      <c r="F37" t="n">
-        <v>2626.7210778809</v>
-      </c>
+        <v>1159.59798305834</v>
+      </c>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
       <c r="G37" t="s">
         <v>10</v>
       </c>
@@ -1568,7 +1280,7 @@
         <v>512</v>
       </c>
       <c r="I37" t="n">
-        <v>1055.94004312588</v>
+        <v>647.597983058341</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,20 +1291,12 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>958.057816645513</v>
-      </c>
-      <c r="C38" t="n">
-        <v>708.16001369971</v>
-      </c>
-      <c r="D38" t="n">
-        <v>606.275619849289</v>
-      </c>
-      <c r="E38" t="n">
-        <v>1312.18497608347</v>
-      </c>
-      <c r="F38" t="n">
-        <v>1558.20227277741</v>
-      </c>
+        <v>1162.9387957858</v>
+      </c>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
       <c r="G38" t="s">
         <v>10</v>
       </c>
@@ -1600,7 +1304,7 @@
         <v>217</v>
       </c>
       <c r="I38" t="n">
-        <v>741.057816645513</v>
+        <v>945.938795785803</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,20 +1315,12 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>634.850863211819</v>
-      </c>
-      <c r="C39" t="n">
-        <v>475.954923418291</v>
-      </c>
-      <c r="D39" t="n">
-        <v>410.373597899321</v>
-      </c>
-      <c r="E39" t="n">
-        <v>856.292280320682</v>
-      </c>
-      <c r="F39" t="n">
-        <v>1008.10537476394</v>
-      </c>
+        <v>985.013004515016</v>
+      </c>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
       <c r="G39" t="s">
         <v>10</v>
       </c>
@@ -1632,7 +1328,7 @@
         <v>270</v>
       </c>
       <c r="I39" t="n">
-        <v>364.850863211819</v>
+        <v>715.013004515016</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1643,20 +1339,12 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>732.020254107272</v>
-      </c>
-      <c r="C40" t="n">
-        <v>545.506538825103</v>
-      </c>
-      <c r="D40" t="n">
-        <v>468.926615133141</v>
-      </c>
-      <c r="E40" t="n">
-        <v>993.801372545653</v>
-      </c>
-      <c r="F40" t="n">
-        <v>1174.28329550242</v>
-      </c>
+        <v>830.302088515914</v>
+      </c>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
       <c r="G40" t="s">
         <v>10</v>
       </c>
@@ -1664,7 +1352,7 @@
         <v>330</v>
       </c>
       <c r="I40" t="n">
-        <v>402.020254107272</v>
+        <v>500.302088515914</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1675,20 +1363,12 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>746.165458354008</v>
-      </c>
-      <c r="C41" t="n">
-        <v>555.383511896166</v>
-      </c>
-      <c r="D41" t="n">
-        <v>477.132024851208</v>
-      </c>
-      <c r="E41" t="n">
-        <v>1014.31450259987</v>
-      </c>
-      <c r="F41" t="n">
-        <v>1199.39344247662</v>
-      </c>
+        <v>761.33621646834</v>
+      </c>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
       <c r="G41" t="s">
         <v>10</v>
       </c>
@@ -1696,7 +1376,7 @@
         <v>305</v>
       </c>
       <c r="I41" t="n">
-        <v>441.165458354008</v>
+        <v>456.33621646834</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1707,20 +1387,12 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>955.880954299868</v>
-      </c>
-      <c r="C42" t="n">
-        <v>704.584338047157</v>
-      </c>
-      <c r="D42" t="n">
-        <v>602.376316509068</v>
-      </c>
-      <c r="E42" t="n">
-        <v>1313.16324105818</v>
-      </c>
-      <c r="F42" t="n">
-        <v>1562.02189564085</v>
-      </c>
+        <v>770.909202562482</v>
+      </c>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
       <c r="G42" t="s">
         <v>10</v>
       </c>
@@ -1728,7 +1400,7 @@
         <v>399</v>
       </c>
       <c r="I42" t="n">
-        <v>556.880954299868</v>
+        <v>371.909202562482</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1739,20 +1411,12 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>1014.4267971337</v>
-      </c>
-      <c r="C43" t="n">
-        <v>745.872251925957</v>
-      </c>
-      <c r="D43" t="n">
-        <v>636.880884842322</v>
-      </c>
-      <c r="E43" t="n">
-        <v>1397.37355077592</v>
-      </c>
-      <c r="F43" t="n">
-        <v>1664.73453023756</v>
-      </c>
+        <v>805.277255200987</v>
+      </c>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
       <c r="G43" t="s">
         <v>10</v>
       </c>
@@ -1760,7 +1424,7 @@
         <v>365</v>
       </c>
       <c r="I43" t="n">
-        <v>649.426797133701</v>
+        <v>440.277255200987</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -1771,20 +1435,12 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>739.731116962801</v>
-      </c>
-      <c r="C44" t="n">
-        <v>550.448105756055</v>
-      </c>
-      <c r="D44" t="n">
-        <v>472.829254545379</v>
-      </c>
-      <c r="E44" t="n">
-        <v>1005.85663221397</v>
-      </c>
-      <c r="F44" t="n">
-        <v>1189.58455041506</v>
-      </c>
+        <v>781.998809443177</v>
+      </c>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
       <c r="G44" t="s">
         <v>10</v>
       </c>
@@ -1792,7 +1448,7 @@
         <v>344</v>
       </c>
       <c r="I44" t="n">
-        <v>395.731116962801</v>
+        <v>437.998809443177</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -1803,20 +1459,12 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>439.762114319925</v>
-      </c>
-      <c r="C45" t="n">
-        <v>333.457710149913</v>
-      </c>
-      <c r="D45" t="n">
-        <v>289.149878968058</v>
-      </c>
-      <c r="E45" t="n">
-        <v>585.946865277492</v>
-      </c>
-      <c r="F45" t="n">
-        <v>685.112045169225</v>
-      </c>
+        <v>598.255397838789</v>
+      </c>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
       <c r="G45" t="s">
         <v>10</v>
       </c>
@@ -1824,7 +1472,7 @@
         <v>240</v>
       </c>
       <c r="I45" t="n">
-        <v>199.762114319925</v>
+        <v>358.255397838789</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -1835,20 +1483,12 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>385.975518334703</v>
-      </c>
-      <c r="C46" t="n">
-        <v>294.000688577329</v>
-      </c>
-      <c r="D46" t="n">
-        <v>255.515133853823</v>
-      </c>
-      <c r="E46" t="n">
-        <v>511.784458957049</v>
-      </c>
-      <c r="F46" t="n">
-        <v>596.769191525455</v>
-      </c>
+        <v>440.902721060552</v>
+      </c>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
       <c r="G46" t="s">
         <v>10</v>
       </c>
@@ -1856,7 +1496,7 @@
         <v>198</v>
       </c>
       <c r="I46" t="n">
-        <v>187.975518334703</v>
+        <v>242.902721060552</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -1867,20 +1507,12 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>812.585567908495</v>
-      </c>
-      <c r="C47" t="n">
-        <v>602.466474381627</v>
-      </c>
-      <c r="D47" t="n">
-        <v>516.573855905019</v>
-      </c>
-      <c r="E47" t="n">
-        <v>1109.27425299759</v>
-      </c>
-      <c r="F47" t="n">
-        <v>1314.80039146661</v>
-      </c>
+        <v>469.676652291726</v>
+      </c>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
       <c r="G47" t="s">
         <v>10</v>
       </c>
@@ -1888,7 +1520,7 @@
         <v>439</v>
       </c>
       <c r="I47" t="n">
-        <v>373.585567908495</v>
+        <v>30.6766522917263</v>
       </c>
       <c r="J47" t="s">
         <v>11</v>
@@ -1899,20 +1531,12 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>1757.46088338243</v>
-      </c>
-      <c r="C48" t="n">
-        <v>1263.60512311872</v>
-      </c>
-      <c r="D48" t="n">
-        <v>1067.01845866196</v>
-      </c>
-      <c r="E48" t="n">
-        <v>2480.56031835025</v>
-      </c>
-      <c r="F48" t="n">
-        <v>2996.15382538291</v>
-      </c>
+        <v>891.688003712556</v>
+      </c>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48"/>
       <c r="G48" t="s">
         <v>10</v>
       </c>
@@ -1920,10 +1544,10 @@
         <v>1320</v>
       </c>
       <c r="I48" t="n">
-        <v>437.460883382427</v>
+        <v>-428.311996287444</v>
       </c>
       <c r="J48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49">
@@ -1931,20 +1555,12 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>1570.8836365426</v>
-      </c>
-      <c r="C49" t="n">
-        <v>1134.80859582925</v>
-      </c>
-      <c r="D49" t="n">
-        <v>960.511172022021</v>
-      </c>
-      <c r="E49" t="n">
-        <v>2205.81687619019</v>
-      </c>
-      <c r="F49" t="n">
-        <v>2656.52955511055</v>
-      </c>
+        <v>1076.48262007807</v>
+      </c>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49"/>
       <c r="G49" t="s">
         <v>10</v>
       </c>
@@ -1952,10 +1568,10 @@
         <v>1122</v>
       </c>
       <c r="I49" t="n">
-        <v>448.883636542602</v>
+        <v>-45.517379921934</v>
       </c>
       <c r="J49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/outcome/appendix/forecast/HFRS.xlsx
+++ b/outcome/appendix/forecast/HFRS.xlsx
@@ -427,7 +427,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>1156.10824281536</v>
+        <v>1148.28283803132</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
@@ -440,7 +440,7 @@
         <v>684</v>
       </c>
       <c r="I2" t="n">
-        <v>472.108242815362</v>
+        <v>464.282838031324</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -451,7 +451,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>797.521304882483</v>
+        <v>798.05364646497</v>
       </c>
       <c r="C3"/>
       <c r="D3"/>
@@ -464,7 +464,7 @@
         <v>374</v>
       </c>
       <c r="I3" t="n">
-        <v>423.521304882483</v>
+        <v>424.05364646497</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -475,7 +475,7 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>749.432077777024</v>
+        <v>751.578445546359</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
@@ -488,7 +488,7 @@
         <v>433</v>
       </c>
       <c r="I4" t="n">
-        <v>316.432077777024</v>
+        <v>318.578445546359</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -499,7 +499,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>714.176503660469</v>
+        <v>715.343997479149</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -512,7 +512,7 @@
         <v>540</v>
       </c>
       <c r="I5" t="n">
-        <v>174.176503660469</v>
+        <v>175.343997479149</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -523,7 +523,7 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>855.655266200393</v>
+        <v>860.873802380062</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
@@ -536,7 +536,7 @@
         <v>686</v>
       </c>
       <c r="I6" t="n">
-        <v>169.655266200393</v>
+        <v>174.873802380062</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -547,7 +547,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>937.140436638483</v>
+        <v>947.686062482352</v>
       </c>
       <c r="C7"/>
       <c r="D7"/>
@@ -560,7 +560,7 @@
         <v>826</v>
       </c>
       <c r="I7" t="n">
-        <v>111.140436638483</v>
+        <v>121.686062482352</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -571,7 +571,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>755.956159895789</v>
+        <v>760.003554716923</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
@@ -584,7 +584,7 @@
         <v>313</v>
       </c>
       <c r="I8" t="n">
-        <v>442.956159895789</v>
+        <v>447.003554716923</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -595,7 +595,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>466.922604641226</v>
+        <v>467.150802618219</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
@@ -608,7 +608,7 @@
         <v>313</v>
       </c>
       <c r="I9" t="n">
-        <v>153.922604641226</v>
+        <v>154.150802618219</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -619,7 +619,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>370.059588598021</v>
+        <v>368.285704063697</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
@@ -632,7 +632,7 @@
         <v>320</v>
       </c>
       <c r="I10" t="n">
-        <v>50.0595885980208</v>
+        <v>48.2857040636971</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -643,7 +643,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>607.151952470888</v>
+        <v>609.660678693669</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
@@ -656,7 +656,7 @@
         <v>611</v>
       </c>
       <c r="I11" t="n">
-        <v>-3.84804752911236</v>
+        <v>-1.33932130633082</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -667,7 +667,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>1260.47091059594</v>
+        <v>1269.14906647556</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
@@ -680,7 +680,7 @@
         <v>1796</v>
       </c>
       <c r="I12" t="n">
-        <v>-535.529089404065</v>
+        <v>-526.850933524438</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -691,7 +691,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>1316.72187653005</v>
+        <v>1322.45555624509</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
@@ -704,7 +704,7 @@
         <v>1460</v>
       </c>
       <c r="I13" t="n">
-        <v>-143.278123469951</v>
+        <v>-137.544443754908</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
@@ -715,7 +715,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>1180.95954937027</v>
+        <v>1170.19234523044</v>
       </c>
       <c r="C14"/>
       <c r="D14"/>
@@ -728,7 +728,7 @@
         <v>562</v>
       </c>
       <c r="I14" t="n">
-        <v>618.959549370267</v>
+        <v>608.192345230442</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -739,7 +739,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>872.477331487484</v>
+        <v>867.27732415064</v>
       </c>
       <c r="C15"/>
       <c r="D15"/>
@@ -752,7 +752,7 @@
         <v>365</v>
       </c>
       <c r="I15" t="n">
-        <v>507.477331487484</v>
+        <v>502.27732415064</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -763,7 +763,7 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>774.164262285526</v>
+        <v>777.248960569356</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
@@ -776,7 +776,7 @@
         <v>424</v>
       </c>
       <c r="I16" t="n">
-        <v>350.164262285526</v>
+        <v>353.248960569356</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -787,7 +787,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>728.557790199107</v>
+        <v>731.281988481122</v>
       </c>
       <c r="C17"/>
       <c r="D17"/>
@@ -800,7 +800,7 @@
         <v>510</v>
       </c>
       <c r="I17" t="n">
-        <v>218.557790199107</v>
+        <v>221.281988481122</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -811,7 +811,7 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>808.507154660842</v>
+        <v>815.832854907487</v>
       </c>
       <c r="C18"/>
       <c r="D18"/>
@@ -824,7 +824,7 @@
         <v>685</v>
       </c>
       <c r="I18" t="n">
-        <v>123.507154660842</v>
+        <v>130.832854907487</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -835,7 +835,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>879.340173021973</v>
+        <v>895.031790601736</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
@@ -848,7 +848,7 @@
         <v>724</v>
       </c>
       <c r="I19" t="n">
-        <v>155.340173021973</v>
+        <v>171.031790601736</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -859,7 +859,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>779.735777260304</v>
+        <v>788.675274067835</v>
       </c>
       <c r="C20"/>
       <c r="D20"/>
@@ -872,7 +872,7 @@
         <v>467</v>
       </c>
       <c r="I20" t="n">
-        <v>312.735777260304</v>
+        <v>321.675274067835</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -883,7 +883,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>517.895477096487</v>
+        <v>522.598809681953</v>
       </c>
       <c r="C21"/>
       <c r="D21"/>
@@ -896,7 +896,7 @@
         <v>255</v>
       </c>
       <c r="I21" t="n">
-        <v>262.895477096487</v>
+        <v>267.598809681953</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -907,7 +907,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>393.481482039365</v>
+        <v>391.669217130882</v>
       </c>
       <c r="C22"/>
       <c r="D22"/>
@@ -920,7 +920,7 @@
         <v>291</v>
       </c>
       <c r="I22" t="n">
-        <v>102.481482039365</v>
+        <v>100.669217130882</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -931,7 +931,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>556.516503540145</v>
+        <v>567.917906530199</v>
       </c>
       <c r="C23"/>
       <c r="D23"/>
@@ -944,7 +944,7 @@
         <v>678</v>
       </c>
       <c r="I23" t="n">
-        <v>-121.483496459855</v>
+        <v>-110.082093469801</v>
       </c>
       <c r="J23" t="s">
         <v>12</v>
@@ -955,7 +955,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>1101.83285287663</v>
+        <v>1124.1777303383</v>
       </c>
       <c r="C24"/>
       <c r="D24"/>
@@ -968,7 +968,7 @@
         <v>2120</v>
       </c>
       <c r="I24" t="n">
-        <v>-1018.16714712337</v>
+        <v>-995.822269661695</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -979,7 +979,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>1243.90338400161</v>
+        <v>1252.98667300443</v>
       </c>
       <c r="C25"/>
       <c r="D25"/>
@@ -992,7 +992,7 @@
         <v>2402</v>
       </c>
       <c r="I25" t="n">
-        <v>-1158.09661599839</v>
+        <v>-1149.01332699557</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -1003,7 +1003,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>1182.36486458914</v>
+        <v>1170.76718874779</v>
       </c>
       <c r="C26"/>
       <c r="D26"/>
@@ -1016,7 +1016,7 @@
         <v>781</v>
       </c>
       <c r="I26" t="n">
-        <v>401.364864589136</v>
+        <v>389.76718874779</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1027,7 +1027,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>940.069451833737</v>
+        <v>917.600099068436</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -1040,7 +1040,7 @@
         <v>330</v>
       </c>
       <c r="I27" t="n">
-        <v>610.069451833737</v>
+        <v>587.600099068436</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1051,7 +1051,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>803.083639903143</v>
+        <v>804.681309146574</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -1064,7 +1064,7 @@
         <v>344</v>
       </c>
       <c r="I28" t="n">
-        <v>459.083639903143</v>
+        <v>460.681309146574</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1075,7 +1075,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>744.352749013343</v>
+        <v>748.473013316034</v>
       </c>
       <c r="C29"/>
       <c r="D29"/>
@@ -1088,7 +1088,7 @@
         <v>333</v>
       </c>
       <c r="I29" t="n">
-        <v>411.352749013343</v>
+        <v>415.473013316034</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1099,7 +1099,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>783.138634292378</v>
+        <v>791.480689700332</v>
       </c>
       <c r="C30"/>
       <c r="D30"/>
@@ -1112,7 +1112,7 @@
         <v>553</v>
       </c>
       <c r="I30" t="n">
-        <v>230.138634292378</v>
+        <v>238.480689700332</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1123,7 +1123,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>835.312673901688</v>
+        <v>852.837293345691</v>
       </c>
       <c r="C31"/>
       <c r="D31"/>
@@ -1136,7 +1136,7 @@
         <v>566</v>
       </c>
       <c r="I31" t="n">
-        <v>269.312673901688</v>
+        <v>286.837293345691</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1147,7 +1147,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>785.750912544745</v>
+        <v>798.786861348512</v>
       </c>
       <c r="C32"/>
       <c r="D32"/>
@@ -1160,7 +1160,7 @@
         <v>404</v>
       </c>
       <c r="I32" t="n">
-        <v>381.750912544745</v>
+        <v>394.786861348512</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1171,7 +1171,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>562.361283859848</v>
+        <v>575.154106893439</v>
       </c>
       <c r="C33"/>
       <c r="D33"/>
@@ -1184,7 +1184,7 @@
         <v>235</v>
       </c>
       <c r="I33" t="n">
-        <v>327.361283859848</v>
+        <v>340.154106893439</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1195,7 +1195,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>417.079945099645</v>
+        <v>417.198491692107</v>
       </c>
       <c r="C34"/>
       <c r="D34"/>
@@ -1208,7 +1208,7 @@
         <v>205</v>
       </c>
       <c r="I34" t="n">
-        <v>212.079945099645</v>
+        <v>212.198491692107</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1219,7 +1219,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>502.919711756665</v>
+        <v>513.375556266673</v>
       </c>
       <c r="C35"/>
       <c r="D35"/>
@@ -1232,7 +1232,7 @@
         <v>400</v>
       </c>
       <c r="I35" t="n">
-        <v>102.919711756665</v>
+        <v>113.375556266673</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1243,7 +1243,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>978.381216101404</v>
+        <v>1000.42412010857</v>
       </c>
       <c r="C36"/>
       <c r="D36"/>
@@ -1256,7 +1256,7 @@
         <v>895</v>
       </c>
       <c r="I36" t="n">
-        <v>83.3812161014038</v>
+        <v>105.424120108566</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1267,7 +1267,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>1159.59798305834</v>
+        <v>1166.00210031526</v>
       </c>
       <c r="C37"/>
       <c r="D37"/>
@@ -1280,7 +1280,7 @@
         <v>512</v>
       </c>
       <c r="I37" t="n">
-        <v>647.597983058341</v>
+        <v>654.002100315264</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1291,7 +1291,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>1162.9387957858</v>
+        <v>1149.3140390722</v>
       </c>
       <c r="C38"/>
       <c r="D38"/>
@@ -1304,7 +1304,7 @@
         <v>217</v>
       </c>
       <c r="I38" t="n">
-        <v>945.938795785803</v>
+        <v>932.3140390722</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1315,7 +1315,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>985.013004515016</v>
+        <v>950.518416629865</v>
       </c>
       <c r="C39"/>
       <c r="D39"/>
@@ -1328,7 +1328,7 @@
         <v>270</v>
       </c>
       <c r="I39" t="n">
-        <v>715.013004515016</v>
+        <v>680.518416629865</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1339,7 +1339,7 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>830.302088515914</v>
+        <v>829.561967198388</v>
       </c>
       <c r="C40"/>
       <c r="D40"/>
@@ -1352,7 +1352,7 @@
         <v>330</v>
       </c>
       <c r="I40" t="n">
-        <v>500.302088515914</v>
+        <v>499.561967198388</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1363,7 +1363,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>761.33621646834</v>
+        <v>766.204349345648</v>
       </c>
       <c r="C41"/>
       <c r="D41"/>
@@ -1376,7 +1376,7 @@
         <v>305</v>
       </c>
       <c r="I41" t="n">
-        <v>456.33621646834</v>
+        <v>461.204349345648</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1387,7 +1387,7 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>770.909202562482</v>
+        <v>779.891947051527</v>
       </c>
       <c r="C42"/>
       <c r="D42"/>
@@ -1400,7 +1400,7 @@
         <v>399</v>
       </c>
       <c r="I42" t="n">
-        <v>371.909202562482</v>
+        <v>380.891947051527</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1411,7 +1411,7 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>805.277255200987</v>
+        <v>822.370295612561</v>
       </c>
       <c r="C43"/>
       <c r="D43"/>
@@ -1424,7 +1424,7 @@
         <v>365</v>
       </c>
       <c r="I43" t="n">
-        <v>440.277255200987</v>
+        <v>457.370295612561</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -1435,7 +1435,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>781.998809443177</v>
+        <v>798.046954142926</v>
       </c>
       <c r="C44"/>
       <c r="D44"/>
@@ -1448,7 +1448,7 @@
         <v>344</v>
       </c>
       <c r="I44" t="n">
-        <v>437.998809443177</v>
+        <v>454.046954142926</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -1459,7 +1459,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>598.255397838789</v>
+        <v>623.310061551337</v>
       </c>
       <c r="C45"/>
       <c r="D45"/>
@@ -1472,7 +1472,7 @@
         <v>240</v>
       </c>
       <c r="I45" t="n">
-        <v>358.255397838789</v>
+        <v>383.310061551337</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -1483,7 +1483,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>440.902721060552</v>
+        <v>445.77930460835</v>
       </c>
       <c r="C46"/>
       <c r="D46"/>
@@ -1496,7 +1496,7 @@
         <v>198</v>
       </c>
       <c r="I46" t="n">
-        <v>242.902721060552</v>
+        <v>247.77930460835</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -1507,7 +1507,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>469.676652291726</v>
+        <v>479.788758962156</v>
       </c>
       <c r="C47"/>
       <c r="D47"/>
@@ -1520,7 +1520,7 @@
         <v>439</v>
       </c>
       <c r="I47" t="n">
-        <v>30.6766522917263</v>
+        <v>40.7887589621556</v>
       </c>
       <c r="J47" t="s">
         <v>11</v>
@@ -1531,7 +1531,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>891.688003712556</v>
+        <v>908.501539696946</v>
       </c>
       <c r="C48"/>
       <c r="D48"/>
@@ -1544,7 +1544,7 @@
         <v>1320</v>
       </c>
       <c r="I48" t="n">
-        <v>-428.311996287444</v>
+        <v>-411.498460303054</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -1555,7 +1555,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>1076.48262007807</v>
+        <v>1074.76725138469</v>
       </c>
       <c r="C49"/>
       <c r="D49"/>
@@ -1568,7 +1568,7 @@
         <v>1122</v>
       </c>
       <c r="I49" t="n">
-        <v>-45.517379921934</v>
+        <v>-47.2327486153126</v>
       </c>
       <c r="J49" t="s">
         <v>12</v>

--- a/outcome/appendix/forecast/HFRS.xlsx
+++ b/outcome/appendix/forecast/HFRS.xlsx
@@ -427,7 +427,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>1148.28283803132</v>
+        <v>1150.01174265776</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
@@ -440,7 +440,7 @@
         <v>684</v>
       </c>
       <c r="I2" t="n">
-        <v>464.282838031324</v>
+        <v>466.011742657762</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -451,7 +451,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>798.05364646497</v>
+        <v>794.570596431729</v>
       </c>
       <c r="C3"/>
       <c r="D3"/>
@@ -464,7 +464,7 @@
         <v>374</v>
       </c>
       <c r="I3" t="n">
-        <v>424.05364646497</v>
+        <v>420.570596431729</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -475,7 +475,7 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>751.578445546359</v>
+        <v>746.459753041819</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
@@ -488,7 +488,7 @@
         <v>433</v>
       </c>
       <c r="I4" t="n">
-        <v>318.578445546359</v>
+        <v>313.459753041819</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -499,7 +499,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>715.343997479149</v>
+        <v>709.301964513145</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -512,7 +512,7 @@
         <v>540</v>
       </c>
       <c r="I5" t="n">
-        <v>175.343997479149</v>
+        <v>169.301964513145</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -523,7 +523,7 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>860.873802380062</v>
+        <v>858.13586424188</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
@@ -536,7 +536,7 @@
         <v>686</v>
       </c>
       <c r="I6" t="n">
-        <v>174.873802380062</v>
+        <v>172.13586424188</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -547,7 +547,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>947.686062482352</v>
+        <v>944.922434812283</v>
       </c>
       <c r="C7"/>
       <c r="D7"/>
@@ -560,7 +560,7 @@
         <v>826</v>
       </c>
       <c r="I7" t="n">
-        <v>121.686062482352</v>
+        <v>118.922434812283</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -571,7 +571,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>760.003554716923</v>
+        <v>754.391524325922</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
@@ -584,7 +584,7 @@
         <v>313</v>
       </c>
       <c r="I8" t="n">
-        <v>447.003554716923</v>
+        <v>441.391524325922</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -595,7 +595,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>467.150802618219</v>
+        <v>467.559927901096</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
@@ -608,7 +608,7 @@
         <v>313</v>
       </c>
       <c r="I9" t="n">
-        <v>154.150802618219</v>
+        <v>154.559927901096</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -619,7 +619,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>368.285704063697</v>
+        <v>367.115758852823</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
@@ -632,7 +632,7 @@
         <v>320</v>
       </c>
       <c r="I10" t="n">
-        <v>48.2857040636971</v>
+        <v>47.1157588528231</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -643,7 +643,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>609.660678693669</v>
+        <v>614.723652321585</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
@@ -656,10 +656,10 @@
         <v>611</v>
       </c>
       <c r="I11" t="n">
-        <v>-1.33932130633082</v>
+        <v>3.72365232158518</v>
       </c>
       <c r="J11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
@@ -667,7 +667,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>1269.14906647556</v>
+        <v>1274.49620447927</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
@@ -680,7 +680,7 @@
         <v>1796</v>
       </c>
       <c r="I12" t="n">
-        <v>-526.850933524438</v>
+        <v>-521.503795520731</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -691,7 +691,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>1322.45555624509</v>
+        <v>1321.62745765955</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
@@ -704,7 +704,7 @@
         <v>1460</v>
       </c>
       <c r="I13" t="n">
-        <v>-137.544443754908</v>
+        <v>-138.37254234045</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
@@ -715,7 +715,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>1170.19234523044</v>
+        <v>1172.46864860675</v>
       </c>
       <c r="C14"/>
       <c r="D14"/>
@@ -728,7 +728,7 @@
         <v>562</v>
       </c>
       <c r="I14" t="n">
-        <v>608.192345230442</v>
+        <v>610.468648606752</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -739,7 +739,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>867.27732415064</v>
+        <v>864.458535230527</v>
       </c>
       <c r="C15"/>
       <c r="D15"/>
@@ -752,7 +752,7 @@
         <v>365</v>
       </c>
       <c r="I15" t="n">
-        <v>502.27732415064</v>
+        <v>499.458535230527</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -763,7 +763,7 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>777.248960569356</v>
+        <v>768.268637250961</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
@@ -776,7 +776,7 @@
         <v>424</v>
       </c>
       <c r="I16" t="n">
-        <v>353.248960569356</v>
+        <v>344.268637250961</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -787,7 +787,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>731.281988481122</v>
+        <v>720.226293035214</v>
       </c>
       <c r="C17"/>
       <c r="D17"/>
@@ -800,7 +800,7 @@
         <v>510</v>
       </c>
       <c r="I17" t="n">
-        <v>221.281988481122</v>
+        <v>210.226293035214</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -811,7 +811,7 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>815.832854907487</v>
+        <v>809.099196005296</v>
       </c>
       <c r="C18"/>
       <c r="D18"/>
@@ -824,7 +824,7 @@
         <v>685</v>
       </c>
       <c r="I18" t="n">
-        <v>130.832854907487</v>
+        <v>124.099196005296</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -835,7 +835,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>895.031790601736</v>
+        <v>888.90498475726</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
@@ -848,7 +848,7 @@
         <v>724</v>
       </c>
       <c r="I19" t="n">
-        <v>171.031790601736</v>
+        <v>164.90498475726</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -859,7 +859,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>788.675274067835</v>
+        <v>778.917171975433</v>
       </c>
       <c r="C20"/>
       <c r="D20"/>
@@ -872,7 +872,7 @@
         <v>467</v>
       </c>
       <c r="I20" t="n">
-        <v>321.675274067835</v>
+        <v>311.917171975433</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -883,7 +883,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>522.598809681953</v>
+        <v>522.022828057113</v>
       </c>
       <c r="C21"/>
       <c r="D21"/>
@@ -896,7 +896,7 @@
         <v>255</v>
       </c>
       <c r="I21" t="n">
-        <v>267.598809681953</v>
+        <v>267.022828057113</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -907,7 +907,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>391.669217130882</v>
+        <v>390.352079936385</v>
       </c>
       <c r="C22"/>
       <c r="D22"/>
@@ -920,7 +920,7 @@
         <v>291</v>
       </c>
       <c r="I22" t="n">
-        <v>100.669217130882</v>
+        <v>99.3520799363846</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -931,7 +931,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>567.917906530199</v>
+        <v>588.670402469447</v>
       </c>
       <c r="C23"/>
       <c r="D23"/>
@@ -944,7 +944,7 @@
         <v>678</v>
       </c>
       <c r="I23" t="n">
-        <v>-110.082093469801</v>
+        <v>-89.3295975305531</v>
       </c>
       <c r="J23" t="s">
         <v>12</v>
@@ -955,7 +955,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>1124.1777303383</v>
+        <v>1141.77430319651</v>
       </c>
       <c r="C24"/>
       <c r="D24"/>
@@ -968,7 +968,7 @@
         <v>2120</v>
       </c>
       <c r="I24" t="n">
-        <v>-995.822269661695</v>
+        <v>-978.225696803489</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -979,7 +979,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>1252.98667300443</v>
+        <v>1256.79106816691</v>
       </c>
       <c r="C25"/>
       <c r="D25"/>
@@ -992,7 +992,7 @@
         <v>2402</v>
       </c>
       <c r="I25" t="n">
-        <v>-1149.01332699557</v>
+        <v>-1145.20893183309</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -1003,7 +1003,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>1170.76718874779</v>
+        <v>1174.40575216711</v>
       </c>
       <c r="C26"/>
       <c r="D26"/>
@@ -1016,7 +1016,7 @@
         <v>781</v>
       </c>
       <c r="I26" t="n">
-        <v>389.76718874779</v>
+        <v>393.405752167114</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1027,7 +1027,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>917.600099068436</v>
+        <v>918.821945822292</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -1040,7 +1040,7 @@
         <v>330</v>
       </c>
       <c r="I27" t="n">
-        <v>587.600099068436</v>
+        <v>588.821945822292</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1051,7 +1051,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>804.681309146574</v>
+        <v>794.455881855354</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -1064,7 +1064,7 @@
         <v>344</v>
       </c>
       <c r="I28" t="n">
-        <v>460.681309146574</v>
+        <v>450.455881855354</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1075,7 +1075,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>748.473013316034</v>
+        <v>733.924072834326</v>
       </c>
       <c r="C29"/>
       <c r="D29"/>
@@ -1088,7 +1088,7 @@
         <v>333</v>
       </c>
       <c r="I29" t="n">
-        <v>415.473013316034</v>
+        <v>400.924072834326</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1099,7 +1099,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>791.480689700332</v>
+        <v>780.649259438941</v>
       </c>
       <c r="C30"/>
       <c r="D30"/>
@@ -1112,7 +1112,7 @@
         <v>553</v>
       </c>
       <c r="I30" t="n">
-        <v>238.480689700332</v>
+        <v>227.649259438941</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1123,7 +1123,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>852.837293345691</v>
+        <v>843.721702418014</v>
       </c>
       <c r="C31"/>
       <c r="D31"/>
@@ -1136,7 +1136,7 @@
         <v>566</v>
       </c>
       <c r="I31" t="n">
-        <v>286.837293345691</v>
+        <v>277.721702418014</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1147,7 +1147,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>798.786861348512</v>
+        <v>785.797295295088</v>
       </c>
       <c r="C32"/>
       <c r="D32"/>
@@ -1160,7 +1160,7 @@
         <v>404</v>
       </c>
       <c r="I32" t="n">
-        <v>394.786861348512</v>
+        <v>381.797295295088</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1171,7 +1171,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>575.154106893439</v>
+        <v>572.438308811939</v>
       </c>
       <c r="C33"/>
       <c r="D33"/>
@@ -1184,7 +1184,7 @@
         <v>235</v>
       </c>
       <c r="I33" t="n">
-        <v>340.154106893439</v>
+        <v>337.438308811939</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1195,7 +1195,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>417.198491692107</v>
+        <v>415.92931577723</v>
       </c>
       <c r="C34"/>
       <c r="D34"/>
@@ -1208,7 +1208,7 @@
         <v>205</v>
       </c>
       <c r="I34" t="n">
-        <v>212.198491692107</v>
+        <v>210.92931577723</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1219,7 +1219,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>513.375556266673</v>
+        <v>532.170424641257</v>
       </c>
       <c r="C35"/>
       <c r="D35"/>
@@ -1232,7 +1232,7 @@
         <v>400</v>
       </c>
       <c r="I35" t="n">
-        <v>113.375556266673</v>
+        <v>132.170424641257</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1243,7 +1243,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>1000.42412010857</v>
+        <v>1025.17076006902</v>
       </c>
       <c r="C36"/>
       <c r="D36"/>
@@ -1256,7 +1256,7 @@
         <v>895</v>
       </c>
       <c r="I36" t="n">
-        <v>105.424120108566</v>
+        <v>130.170760069023</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1267,7 +1267,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>1166.00210031526</v>
+        <v>1177.64198979482</v>
       </c>
       <c r="C37"/>
       <c r="D37"/>
@@ -1280,7 +1280,7 @@
         <v>512</v>
       </c>
       <c r="I37" t="n">
-        <v>654.002100315264</v>
+        <v>665.641989794823</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1291,7 +1291,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>1149.3140390722</v>
+        <v>1156.35835140193</v>
       </c>
       <c r="C38"/>
       <c r="D38"/>
@@ -1304,7 +1304,7 @@
         <v>217</v>
       </c>
       <c r="I38" t="n">
-        <v>932.3140390722</v>
+        <v>939.358351401931</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1315,7 +1315,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>950.518416629865</v>
+        <v>955.684846570057</v>
       </c>
       <c r="C39"/>
       <c r="D39"/>
@@ -1328,7 +1328,7 @@
         <v>270</v>
       </c>
       <c r="I39" t="n">
-        <v>680.518416629865</v>
+        <v>685.684846570057</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1339,7 +1339,7 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>829.561967198388</v>
+        <v>819.60968732024</v>
       </c>
       <c r="C40"/>
       <c r="D40"/>
@@ -1352,7 +1352,7 @@
         <v>330</v>
       </c>
       <c r="I40" t="n">
-        <v>499.561967198388</v>
+        <v>489.60968732024</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1363,7 +1363,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>766.204349345648</v>
+        <v>749.34564656206</v>
       </c>
       <c r="C41"/>
       <c r="D41"/>
@@ -1376,7 +1376,7 @@
         <v>305</v>
       </c>
       <c r="I41" t="n">
-        <v>461.204349345648</v>
+        <v>444.34564656206</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1387,7 +1387,7 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>779.891947051527</v>
+        <v>765.368027079837</v>
       </c>
       <c r="C42"/>
       <c r="D42"/>
@@ -1400,7 +1400,7 @@
         <v>399</v>
       </c>
       <c r="I42" t="n">
-        <v>380.891947051527</v>
+        <v>366.368027079837</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1411,7 +1411,7 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>822.370295612561</v>
+        <v>810.355332157052</v>
       </c>
       <c r="C43"/>
       <c r="D43"/>
@@ -1424,7 +1424,7 @@
         <v>365</v>
       </c>
       <c r="I43" t="n">
-        <v>457.370295612561</v>
+        <v>445.355332157052</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -1435,7 +1435,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>798.046954142926</v>
+        <v>782.689736320927</v>
       </c>
       <c r="C44"/>
       <c r="D44"/>
@@ -1448,7 +1448,7 @@
         <v>344</v>
       </c>
       <c r="I44" t="n">
-        <v>454.046954142926</v>
+        <v>438.689736320927</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -1459,7 +1459,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>623.310061551337</v>
+        <v>615.750687717448</v>
       </c>
       <c r="C45"/>
       <c r="D45"/>
@@ -1472,7 +1472,7 @@
         <v>240</v>
       </c>
       <c r="I45" t="n">
-        <v>383.310061551337</v>
+        <v>375.750687717448</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -1483,7 +1483,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>445.77930460835</v>
+        <v>443.866694311528</v>
       </c>
       <c r="C46"/>
       <c r="D46"/>
@@ -1496,7 +1496,7 @@
         <v>198</v>
       </c>
       <c r="I46" t="n">
-        <v>247.77930460835</v>
+        <v>245.866694311528</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -1507,7 +1507,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>479.788758962156</v>
+        <v>496.118654569495</v>
       </c>
       <c r="C47"/>
       <c r="D47"/>
@@ -1520,7 +1520,7 @@
         <v>439</v>
       </c>
       <c r="I47" t="n">
-        <v>40.7887589621556</v>
+        <v>57.1186545694946</v>
       </c>
       <c r="J47" t="s">
         <v>11</v>
@@ -1531,7 +1531,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>908.501539696946</v>
+        <v>934.259792349094</v>
       </c>
       <c r="C48"/>
       <c r="D48"/>
@@ -1544,7 +1544,7 @@
         <v>1320</v>
       </c>
       <c r="I48" t="n">
-        <v>-411.498460303054</v>
+        <v>-385.740207650906</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -1555,7 +1555,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>1074.76725138469</v>
+        <v>1094.15076186458</v>
       </c>
       <c r="C49"/>
       <c r="D49"/>
@@ -1568,7 +1568,7 @@
         <v>1122</v>
       </c>
       <c r="I49" t="n">
-        <v>-47.2327486153126</v>
+        <v>-27.8492381354176</v>
       </c>
       <c r="J49" t="s">
         <v>12</v>
